--- a/input/DANE/1961.xlsx
+++ b/input/DANE/1961.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josetavera/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F0F9F88-2DD8-234B-85D0-CD52C09E49FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66CCE930-557F-FD48-8734-5B6DDA31B892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13780" xr2:uid="{59A6D8F1-059F-174D-87E6-736EAE6DE18E}"/>
   </bookViews>
@@ -1443,9 +1443,6 @@
     <t>240, 904</t>
   </si>
   <si>
-    <t>124, 063</t>
-  </si>
-  <si>
     <t>Quinchía.</t>
   </si>
   <si>
@@ -1969,6 +1966,9 @@
   </si>
   <si>
     <t>1,479.426</t>
+  </si>
+  <si>
+    <t>1124 063</t>
   </si>
 </sst>
 </file>
@@ -2024,7 +2024,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="47" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2341,13 +2341,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561B92DE-C054-F940-B377-DF771909CE86}">
   <dimension ref="A1:L995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="10.83203125" style="1"/>
+    <col min="1" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -4229,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="3">
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="I59" s="3">
         <v>483</v>
@@ -4520,7 +4522,7 @@
         <v>289</v>
       </c>
       <c r="I68" s="3">
-        <v>1.48</v>
+        <v>1480</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>290</v>
@@ -4572,7 +4574,7 @@
         <v>297</v>
       </c>
       <c r="E70" s="3">
-        <v>1.19</v>
+        <v>1190</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>298</v>
@@ -5899,12 +5901,12 @@
         <v>428</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>469</v>
+        <v>644</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>376</v>
@@ -5919,24 +5921,24 @@
         <v>140</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G112" s="3">
         <v>24</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I112" s="3">
         <v>646</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>376</v>
@@ -5951,24 +5953,24 @@
         <v>194</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G113" s="3">
         <v>184</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I113" s="4">
         <v>1218</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>376</v>
@@ -5977,7 +5979,7 @@
         <v>552</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E114" s="3">
         <v>264</v>
@@ -6000,7 +6002,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>376</v>
@@ -6009,7 +6011,7 @@
         <v>340</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E115" s="3">
         <v>129</v>
@@ -6021,7 +6023,7 @@
         <v>8</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I115" s="3">
         <v>477</v>
@@ -6032,7 +6034,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>376</v>
@@ -6041,25 +6043,25 @@
         <v>449</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E116" s="3">
         <v>382</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G116" s="3">
         <v>164</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I116" s="3">
         <v>995</v>
       </c>
       <c r="J116" s="6">
-        <v>2.6004861111111111E-3</v>
+        <v>2104682</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -6079,13 +6081,13 @@
         <v>63</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G117" s="3">
         <v>2</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I117" s="3">
         <v>299</v>
@@ -6096,7 +6098,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>376</v>
@@ -6105,33 +6107,33 @@
         <v>130</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E118" s="3">
         <v>23</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G118" s="3">
         <v>26</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I118" s="3">
         <v>179</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="C119" s="3">
         <v>767</v>
@@ -6160,10 +6162,10 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C120" s="3">
         <v>409</v>
@@ -6192,10 +6194,10 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C121" s="3">
         <v>782</v>
@@ -6224,10 +6226,10 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C122" s="3">
         <v>370</v>
@@ -6256,10 +6258,10 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C123" s="3">
         <v>313</v>
@@ -6288,16 +6290,16 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C124" s="3">
         <v>490</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E124" s="3">
         <v>122</v>
@@ -6315,21 +6317,21 @@
         <v>643</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C125" s="3">
         <v>570</v>
       </c>
       <c r="D125" s="3">
-        <v>943.48</v>
+        <v>943480</v>
       </c>
       <c r="E125" s="3">
         <v>158</v>
@@ -6347,15 +6349,15 @@
         <v>775</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C126" s="4">
         <v>1058</v>
@@ -6379,15 +6381,15 @@
         <v>1332</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C127" s="4">
         <v>1407</v>
@@ -6416,10 +6418,10 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C128" s="3">
         <v>315</v>
@@ -6448,10 +6450,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C129" s="3">
         <v>619</v>
@@ -6480,10 +6482,10 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C130" s="4">
         <v>1068</v>
@@ -6512,10 +6514,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>512</v>
       </c>
       <c r="C131" s="4">
         <v>2994</v>
@@ -6544,10 +6546,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C132" s="3">
         <v>376</v>
@@ -6576,10 +6578,10 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C133" s="3">
         <v>749</v>
@@ -6611,7 +6613,7 @@
         <v>186</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C134" s="3">
         <v>343</v>
@@ -6640,10 +6642,10 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C135" s="3">
         <v>451</v>
@@ -6672,16 +6674,16 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C136" s="4">
         <v>1310</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E136" s="3">
         <v>267</v>
@@ -6704,10 +6706,10 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C137" s="4">
         <v>1038</v>
@@ -6736,10 +6738,10 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C138" s="3">
         <v>512</v>
@@ -6757,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="H138" s="3">
-        <v>1.89</v>
+        <v>1890</v>
       </c>
       <c r="I138" s="3">
         <v>720</v>
@@ -6768,16 +6770,16 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C139" s="3">
         <v>652</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E139" s="3">
         <v>101</v>
@@ -6800,10 +6802,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C140" s="4">
         <v>1998</v>
@@ -6827,15 +6829,15 @@
         <v>2.3370000000000002</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C141" s="3">
         <v>491</v>
@@ -6864,10 +6866,10 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C142" s="3">
         <v>415</v>
@@ -6896,10 +6898,10 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C143" s="3">
         <v>549</v>
@@ -6928,10 +6930,10 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C144" s="3">
         <v>735</v>
@@ -6960,10 +6962,10 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C145" s="3">
         <v>899</v>
@@ -6992,10 +6994,10 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C146" s="3">
         <v>787</v>
@@ -7027,7 +7029,7 @@
         <v>113</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C147" s="3">
         <v>567</v>
@@ -7051,15 +7053,15 @@
         <v>925</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C148" s="4">
         <v>1132</v>
@@ -7088,10 +7090,10 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C149" s="4">
         <v>1513</v>
@@ -7120,10 +7122,10 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C150" s="3">
         <v>702</v>
@@ -7152,10 +7154,10 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C151" s="3">
         <v>545</v>
@@ -7184,10 +7186,10 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C152" s="3">
         <v>877</v>
@@ -7216,10 +7218,10 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C153" s="3">
         <v>452</v>
@@ -7248,10 +7250,10 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C154" s="3">
         <v>209</v>
@@ -7280,16 +7282,16 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C155" s="3">
         <v>911</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E155" s="3">
         <v>271</v>
@@ -7312,10 +7314,10 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C156" s="3">
         <v>481</v>
@@ -7344,10 +7346,10 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C157" s="3">
         <v>274</v>
@@ -7359,7 +7361,7 @@
         <v>110</v>
       </c>
       <c r="F157" s="3">
-        <v>588.71</v>
+        <v>588710</v>
       </c>
       <c r="G157" s="3">
         <v>37</v>
@@ -7371,15 +7373,15 @@
         <v>421</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>544</v>
       </c>
       <c r="C158" s="3">
         <v>856</v>
@@ -7408,10 +7410,10 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C159" s="3">
         <v>171</v>
@@ -7440,10 +7442,10 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C160" s="3">
         <v>248</v>
@@ -7467,21 +7469,21 @@
         <v>469</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C161" s="3">
         <v>310</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E161" s="3">
         <v>212</v>
@@ -7504,10 +7506,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C162" s="3">
         <v>223</v>
@@ -7536,10 +7538,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C163" s="3">
         <v>325</v>
@@ -7568,10 +7570,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C164" s="3">
         <v>264</v>
@@ -7600,10 +7602,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C165" s="3">
         <v>241</v>
@@ -7632,10 +7634,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C166" s="4">
         <v>1780</v>
@@ -7658,16 +7660,16 @@
       <c r="I166" s="4">
         <v>4846</v>
       </c>
-      <c r="J166" s="5">
-        <v>12214.38</v>
+      <c r="J166" s="6">
+        <v>12214380</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C167" s="3">
         <v>175</v>
@@ -7696,10 +7698,10 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C168" s="3">
         <v>848</v>
@@ -7728,10 +7730,10 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C169" s="3">
         <v>151</v>
@@ -7760,10 +7762,10 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C170" s="3">
         <v>341</v>
@@ -7792,16 +7794,16 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C171" s="4">
         <v>1784</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E171" s="3">
         <v>332</v>
@@ -7824,16 +7826,16 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C172" s="3">
         <v>246</v>
       </c>
       <c r="D172" s="3">
-        <v>368.22</v>
+        <v>388220</v>
       </c>
       <c r="E172" s="3">
         <v>147</v>
@@ -7856,10 +7858,10 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C173" s="3">
         <v>120</v>
@@ -7888,10 +7890,10 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C174" s="3">
         <v>678</v>
@@ -7920,10 +7922,10 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C175" s="4">
         <v>1030</v>
@@ -7952,10 +7954,10 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C176" s="3">
         <v>98</v>
@@ -7984,16 +7986,16 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C177" s="3">
         <v>216</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E177" s="3">
         <v>177</v>
@@ -8016,16 +8018,16 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C178" s="3">
         <v>492</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E178" s="3">
         <v>262</v>
@@ -8048,22 +8050,22 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C179" s="3">
         <v>562</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E179" s="3">
         <v>377</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G179" s="3">
         <v>5</v>
@@ -8080,10 +8082,10 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C180" s="3">
         <v>282</v>
@@ -8112,10 +8114,10 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C181" s="3">
         <v>821</v>
@@ -8144,10 +8146,10 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C182" s="3">
         <v>111</v>
@@ -8176,10 +8178,10 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C183" s="3">
         <v>757</v>
@@ -8208,10 +8210,10 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C184" s="3">
         <v>349</v>
@@ -8240,16 +8242,16 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C185" s="3">
         <v>884</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E185" s="3">
         <v>246</v>
@@ -8267,15 +8269,15 @@
         <v>1142</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C186" s="3">
         <v>156</v>
@@ -8299,15 +8301,15 @@
         <v>317</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C187" s="3">
         <v>268</v>
@@ -8336,10 +8338,10 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C188" s="3">
         <v>247</v>
@@ -8368,10 +8370,10 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C189" s="3">
         <v>444</v>
@@ -8400,10 +8402,10 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="C190" s="3">
         <v>898</v>
@@ -8432,10 +8434,10 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C191" s="3">
         <v>179</v>
@@ -8447,7 +8449,7 @@
         <v>53</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G191" s="3">
         <v>3</v>
@@ -8467,7 +8469,7 @@
         <v>186</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C192" s="3">
         <v>285</v>
@@ -8496,10 +8498,10 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C193" s="3">
         <v>118</v>
@@ -8528,10 +8530,10 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C194" s="3">
         <v>569</v>
@@ -8560,10 +8562,10 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C195" s="3">
         <v>236</v>
@@ -8575,7 +8577,7 @@
         <v>134</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G195" s="3">
         <v>21</v>
@@ -8592,10 +8594,10 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C196" s="3">
         <v>668</v>
@@ -8624,10 +8626,10 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C197" s="3">
         <v>343</v>
@@ -8656,10 +8658,10 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C198" s="3">
         <v>120</v>
@@ -8688,10 +8690,10 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C199" s="3">
         <v>319</v>
@@ -8720,10 +8722,10 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C200" s="3">
         <v>307</v>
@@ -8735,7 +8737,7 @@
         <v>158</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G200" s="3">
         <v>147</v>
@@ -8752,10 +8754,10 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C201" s="3">
         <v>627</v>
@@ -8784,10 +8786,10 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C202" s="3">
         <v>237</v>
@@ -8816,10 +8818,10 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C203" s="3">
         <v>404</v>
@@ -8843,21 +8845,21 @@
         <v>683</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C204" s="3">
         <v>418</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E204" s="3">
         <v>405</v>
@@ -8880,16 +8882,16 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C205" s="3">
         <v>486</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E205" s="3">
         <v>498</v>
@@ -8901,21 +8903,21 @@
         <v>219</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I205" s="4">
         <v>1203</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C206" s="3">
         <v>197</v>
@@ -8944,10 +8946,10 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C207" s="3">
         <v>496</v>
@@ -8976,10 +8978,10 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C208" s="3">
         <v>159</v>
@@ -9008,10 +9010,10 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C209" s="3">
         <v>79</v>
@@ -9040,10 +9042,10 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C210" s="3">
         <v>265</v>
@@ -9067,15 +9069,15 @@
         <v>950</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="C211" s="3">
         <v>908</v>
@@ -9096,7 +9098,7 @@
         <v>470342</v>
       </c>
       <c r="I211" s="3">
-        <v>1.66</v>
+        <v>1660</v>
       </c>
       <c r="J211" s="4">
         <v>5193037</v>
@@ -9104,10 +9106,10 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C212" s="3">
         <v>284</v>
@@ -9131,15 +9133,15 @@
         <v>502</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C213" s="3">
         <v>235</v>
@@ -9168,10 +9170,10 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C214" s="3">
         <v>314</v>
@@ -9200,10 +9202,10 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C215" s="3">
         <v>185</v>
@@ -9232,10 +9234,10 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B216" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>624</v>
       </c>
       <c r="C216" s="3">
         <v>342</v>
@@ -9259,15 +9261,15 @@
         <v>543</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C217" s="3">
         <v>312</v>
@@ -9291,15 +9293,15 @@
         <v>458</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C218" s="3">
         <v>382</v>
@@ -9328,10 +9330,10 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C219" s="3">
         <v>493</v>
@@ -9360,10 +9362,10 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C220" s="3">
         <v>522</v>
@@ -9392,10 +9394,10 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B221" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>632</v>
       </c>
       <c r="C221" s="3">
         <v>102</v>
@@ -9424,10 +9426,10 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B222" s="3" t="s">
         <v>633</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>634</v>
       </c>
       <c r="C222" s="3">
         <v>98</v>
@@ -9456,10 +9458,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>636</v>
       </c>
       <c r="C223" s="3">
         <v>174</v>
@@ -9488,22 +9490,22 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B224" s="3" t="s">
         <v>637</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>638</v>
       </c>
       <c r="C224" s="3">
         <v>27</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E224" s="3">
         <v>14</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G224" s="3">
         <v>0</v>
@@ -9520,10 +9522,10 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B225" s="3" t="s">
         <v>641</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>642</v>
       </c>
       <c r="C225" s="3">
         <v>312</v>
@@ -9552,10 +9554,10 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C226" s="3">
         <v>118</v>
@@ -9579,7 +9581,7 @@
         <v>480</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
